--- a/wbs/memo_lingbao.xlsx
+++ b/wbs/memo_lingbao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/lingbao_h5/wbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141272A3-47FD-1047-8F3C-A8F92B6C9CA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D036DC-8970-424E-84CC-F628499D1D6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14820" activeTab="1" xr2:uid="{E5D06D35-FA80-8649-BE55-60F407B97253}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>爬数据</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,16 +513,43 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -530,38 +557,445 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,16 +1478,20 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="82.33203125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>37</v>
@@ -1061,10 +1499,10 @@
       <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1072,273 +1510,283 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:7" ht="22">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" ht="19" customHeight="1">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="19">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="28">
         <v>0.6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="19">
-      <c r="A10" s="4">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="19">
-      <c r="A12" s="4">
+      <c r="A12" s="14">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="19">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="19">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="19">
-      <c r="A18" s="4">
+      <c r="A18" s="14">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+    <row r="22" spans="1:7" ht="17" thickBot="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
@@ -1346,8 +1794,8 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
@@ -1355,12 +1803,24 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
